--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H2">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N2">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O2">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P2">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q2">
-        <v>1.754095630395615</v>
+        <v>6.912104976783</v>
       </c>
       <c r="R2">
-        <v>1.754095630395615</v>
+        <v>62.208944791047</v>
       </c>
       <c r="S2">
-        <v>0.0007347830110099624</v>
+        <v>0.001151139244179625</v>
       </c>
       <c r="T2">
-        <v>0.0007347830110099624</v>
+        <v>0.001151139244179625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H3">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N3">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O3">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P3">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q3">
-        <v>1539.931313724375</v>
+        <v>4705.104422657852</v>
       </c>
       <c r="R3">
-        <v>1539.931313724375</v>
+        <v>42345.93980392067</v>
       </c>
       <c r="S3">
-        <v>0.645070512598976</v>
+        <v>0.7835862399481912</v>
       </c>
       <c r="T3">
-        <v>0.645070512598976</v>
+        <v>0.7835862399481912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H4">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I4">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J4">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N4">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O4">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P4">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q4">
-        <v>0.9718414027514291</v>
+        <v>3.509601021972</v>
       </c>
       <c r="R4">
-        <v>0.9718414027514291</v>
+        <v>31.586409197748</v>
       </c>
       <c r="S4">
-        <v>0.0004071001259930085</v>
+        <v>0.0005844875738107183</v>
       </c>
       <c r="T4">
-        <v>0.0004071001259930085</v>
+        <v>0.0005844875738107182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H5">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I5">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J5">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N5">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O5">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P5">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q5">
-        <v>3.95482631067021</v>
+        <v>13.880581449993</v>
       </c>
       <c r="R5">
-        <v>3.95482631067021</v>
+        <v>124.925233049937</v>
       </c>
       <c r="S5">
-        <v>0.001656659496905695</v>
+        <v>0.00231166657520229</v>
       </c>
       <c r="T5">
-        <v>0.001656659496905695</v>
+        <v>0.00231166657520229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H6">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I6">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J6">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N6">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O6">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P6">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q6">
-        <v>0.4141269637845925</v>
+        <v>1.122140495293</v>
       </c>
       <c r="R6">
-        <v>0.4141269637845925</v>
+        <v>10.099264457637</v>
       </c>
       <c r="S6">
-        <v>0.0001734759793691675</v>
+        <v>0.0001868808367282827</v>
       </c>
       <c r="T6">
-        <v>0.0001734759793691675</v>
+        <v>0.0001868808367282827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H7">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I7">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J7">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N7">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O7">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P7">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q7">
-        <v>363.5646018031882</v>
+        <v>763.8466465687073</v>
       </c>
       <c r="R7">
-        <v>363.5646018031882</v>
+        <v>6874.619819118368</v>
       </c>
       <c r="S7">
-        <v>0.1522956264074007</v>
+        <v>0.1272107200850818</v>
       </c>
       <c r="T7">
-        <v>0.1522956264074007</v>
+        <v>0.1272107200850818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H8">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I8">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J8">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N8">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O8">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P8">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q8">
-        <v>0.229443436507984</v>
+        <v>0.5697635441453334</v>
       </c>
       <c r="R8">
-        <v>0.229443436507984</v>
+        <v>5.127871897308001</v>
       </c>
       <c r="S8">
-        <v>9.611285508748799E-05</v>
+        <v>9.488819654382893E-05</v>
       </c>
       <c r="T8">
-        <v>9.611285508748799E-05</v>
+        <v>9.488819654382892E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H9">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I9">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J9">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N9">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O9">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P9">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q9">
-        <v>0.9337006397786246</v>
+        <v>2.253432578869667</v>
       </c>
       <c r="R9">
-        <v>0.9337006397786246</v>
+        <v>20.280893209827</v>
       </c>
       <c r="S9">
-        <v>0.0003911231266927743</v>
+        <v>0.0003752857753698448</v>
       </c>
       <c r="T9">
-        <v>0.0003911231266927743</v>
+        <v>0.0003752857753698448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H10">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I10">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J10">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N10">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O10">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P10">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q10">
-        <v>0.5392622227402173</v>
+        <v>0.7415426123390001</v>
       </c>
       <c r="R10">
-        <v>0.5392622227402173</v>
+        <v>6.673883511051001</v>
       </c>
       <c r="S10">
-        <v>0.0002258945937055977</v>
+        <v>0.0001234962149970396</v>
       </c>
       <c r="T10">
-        <v>0.0002258945937055977</v>
+        <v>0.0001234962149970397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H11">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I11">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J11">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N11">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O11">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P11">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q11">
-        <v>473.4216132326699</v>
+        <v>504.7717644082045</v>
       </c>
       <c r="R11">
-        <v>473.4216132326699</v>
+        <v>4542.945879673842</v>
       </c>
       <c r="S11">
-        <v>0.1983142494744365</v>
+        <v>0.0840644911088303</v>
       </c>
       <c r="T11">
-        <v>0.1983142494744365</v>
+        <v>0.08406449110883032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H12">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I12">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J12">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N12">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O12">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P12">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q12">
-        <v>0.2987735365833543</v>
+        <v>0.3765160857426668</v>
       </c>
       <c r="R12">
-        <v>0.2987735365833543</v>
+        <v>3.388644771684</v>
       </c>
       <c r="S12">
-        <v>0.0001251549317019272</v>
+        <v>6.270484082911102E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001251549317019272</v>
+        <v>6.270484082911102E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H13">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I13">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J13">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N13">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O13">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P13">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q13">
-        <v>1.2158336124254</v>
+        <v>1.489132856602334</v>
       </c>
       <c r="R13">
-        <v>1.2158336124254</v>
+        <v>13.402195709421</v>
       </c>
       <c r="S13">
-        <v>0.0005093073987212233</v>
+        <v>0.0002479996002361166</v>
       </c>
       <c r="T13">
-        <v>0.0005093073987212233</v>
+        <v>0.0002479996002361166</v>
       </c>
     </row>
   </sheetData>
